--- a/Alimenta-AI-SD&TE/ProductBacklog.xlsx
+++ b/Alimenta-AI-SD&TE/ProductBacklog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mniac\Desktop\Alimenta-AI\Alimenta-AI-SD&amp;TE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C92D7A07-183A-4ADC-BB18-821ABD10257D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F345955-1713-44C0-8980-3A6C21F8325C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="63">
   <si>
     <t>ID</t>
   </si>
@@ -128,9 +128,6 @@
     <t>US024</t>
   </si>
   <si>
-    <t>SPRINTS</t>
-  </si>
-  <si>
     <t>Cadastro e autenticação de usuários</t>
   </si>
   <si>
@@ -201,9 +198,6 @@
   </si>
   <si>
     <t>Como usuário, gostaria de saber a localização e os horários de distribuição dos pontos de alimentação para facilitar o acesso às refeições e me planejar adequadamente.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>Desenvolver um sistema de registro e gerenciamento das solicitações de doações.</t>
@@ -253,7 +247,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -311,28 +305,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="24"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="35"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="35"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="14"/>
       <color theme="1"/>
@@ -381,13 +353,13 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -414,18 +386,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -503,17 +469,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -542,7 +497,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -574,40 +529,25 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -616,108 +556,138 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="49">
+  <dxfs count="37">
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -747,6 +717,36 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -784,16 +784,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -816,177 +806,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1504,531 +1323,456 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="56" zoomScaleNormal="113" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D20" sqref="D20"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="65" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="45.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="38.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.7109375" customWidth="1"/>
+    <col min="3" max="3" width="58.85546875" customWidth="1"/>
     <col min="4" max="4" width="63.42578125" customWidth="1"/>
-    <col min="5" max="5" width="81.5703125" customWidth="1"/>
+    <col min="5" max="5" width="12" customWidth="1"/>
     <col min="6" max="6" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="12"/>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="7">
+        <v>2</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="24"/>
+      <c r="B3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="49" t="s">
+      <c r="D3" s="38"/>
+      <c r="E3" s="8">
+        <v>2</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="24"/>
+      <c r="B4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="38"/>
+      <c r="E4" s="7">
+        <v>5</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="24"/>
+      <c r="B5" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="38"/>
+      <c r="E5" s="7">
+        <v>4</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="25"/>
+      <c r="B6" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="39"/>
+      <c r="E6" s="7">
+        <v>4</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="F2" s="7">
+      <c r="B7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="4">
+        <v>6</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="30"/>
+      <c r="B8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="41"/>
+      <c r="E8" s="4">
+        <v>3</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="3" t="s">
+    </row>
+    <row r="9" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="30"/>
+      <c r="B9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="41"/>
+      <c r="E9" s="4">
+        <v>8</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="30"/>
+      <c r="B10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="42"/>
+      <c r="E10" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="13"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="7" t="s">
+      <c r="F10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="43" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" s="18">
+        <v>6</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="27"/>
+      <c r="B12" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="44"/>
+      <c r="E12" s="12">
+        <v>4</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="27"/>
+      <c r="B13" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="44"/>
+      <c r="E13" s="12">
         <v>3</v>
       </c>
-      <c r="D3" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="E3" s="50"/>
-      <c r="F3" s="8">
+      <c r="F13" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="28"/>
+      <c r="B14" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" s="45"/>
+      <c r="E14" s="12">
+        <v>3</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" s="4">
         <v>2</v>
       </c>
-      <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="13"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="7" t="s">
+      <c r="F15" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="32"/>
+      <c r="B16" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" s="47"/>
+      <c r="E16" s="4">
+        <v>2</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="32"/>
+      <c r="B17" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" s="47"/>
+      <c r="E17" s="4">
+        <v>2</v>
+      </c>
+      <c r="F17" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="32"/>
+      <c r="B18" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" s="48"/>
+      <c r="E18" s="4">
         <v>4</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4" s="50"/>
-      <c r="F4" s="7">
-        <v>5</v>
-      </c>
-      <c r="G4" s="5" t="s">
+      <c r="F18" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="14"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E5" s="50"/>
-      <c r="F5" s="7">
-        <v>4</v>
-      </c>
-      <c r="G5" s="3" t="s">
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="D19" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="E19" s="11">
+        <v>6</v>
+      </c>
+      <c r="F19" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="14"/>
-      <c r="B6" s="26"/>
-      <c r="C6" s="7" t="s">
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="33"/>
+      <c r="B20" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" s="35"/>
+      <c r="E20" s="11">
         <v>6</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E6" s="51"/>
-      <c r="F6" s="7">
-        <v>4</v>
-      </c>
-      <c r="G6" s="5" t="s">
+      <c r="F20" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="14"/>
-      <c r="B7" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="E7" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="F7" s="4">
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="33"/>
+      <c r="B21" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="D21" s="35"/>
+      <c r="E21" s="12">
         <v>6</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="F21" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="33"/>
+      <c r="B22" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="D22" s="35"/>
+      <c r="E22" s="12">
+        <v>6</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="33"/>
+      <c r="B23" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D23" s="36"/>
+      <c r="E23" s="12">
+        <v>3</v>
+      </c>
+      <c r="F23" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="14"/>
-      <c r="B8" s="29"/>
-      <c r="C8" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="E8" s="39"/>
-      <c r="F8" s="4">
-        <v>3</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="14"/>
-      <c r="B9" s="29"/>
-      <c r="C9" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="E9" s="39"/>
-      <c r="F9" s="4">
-        <v>8</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="14"/>
-      <c r="B10" s="29"/>
-      <c r="C10" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="E10" s="40"/>
-      <c r="F10" s="4">
-        <v>2</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H10" s="1"/>
-    </row>
-    <row r="11" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="14"/>
-      <c r="B11" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="C11" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="41" t="s">
-        <v>46</v>
-      </c>
-      <c r="E11" s="46" t="s">
-        <v>50</v>
-      </c>
-      <c r="F11" s="23">
-        <v>6</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H11" s="1"/>
-    </row>
-    <row r="12" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="15"/>
-      <c r="B12" s="28"/>
-      <c r="C12" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="E12" s="47"/>
-      <c r="F12" s="17">
-        <v>4</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H12" s="1"/>
-    </row>
-    <row r="13" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="13"/>
-      <c r="B13" s="28"/>
-      <c r="C13" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="E13" s="47"/>
-      <c r="F13" s="17">
-        <v>3</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H13" s="1"/>
-    </row>
-    <row r="14" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="53"/>
-      <c r="B14" s="52"/>
-      <c r="C14" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="E14" s="48"/>
-      <c r="F14" s="17">
-        <v>3</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H14" s="1"/>
-    </row>
-    <row r="15" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="11"/>
-      <c r="B15" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="C15" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="E15" s="37" t="s">
-        <v>55</v>
-      </c>
-      <c r="F15" s="4">
-        <v>2</v>
-      </c>
-      <c r="G15" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="H15" s="1"/>
-    </row>
-    <row r="16" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="11"/>
-      <c r="B16" s="31"/>
-      <c r="C16" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="E16" s="35"/>
-      <c r="F16" s="4">
-        <v>2</v>
-      </c>
-      <c r="G16" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="H16" s="1"/>
-    </row>
-    <row r="17" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="11"/>
-      <c r="B17" s="31"/>
-      <c r="C17" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="E17" s="35"/>
-      <c r="F17" s="4">
-        <v>2</v>
-      </c>
-      <c r="G17" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="H17" s="1"/>
-    </row>
-    <row r="18" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="11"/>
-      <c r="B18" s="31"/>
-      <c r="C18" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="E18" s="36"/>
-      <c r="F18" s="4">
-        <v>4</v>
-      </c>
-      <c r="G18" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="H18" s="1"/>
-    </row>
-    <row r="19" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A19" s="44" t="s">
-        <v>56</v>
-      </c>
-      <c r="B19" s="32" t="s">
-        <v>63</v>
-      </c>
-      <c r="C19" s="45" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" s="57" t="s">
-        <v>64</v>
-      </c>
-      <c r="E19" s="54" t="s">
-        <v>61</v>
-      </c>
-      <c r="F19" s="16">
-        <v>6</v>
-      </c>
-      <c r="G19" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="H19" s="1"/>
-    </row>
-    <row r="20" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A20" s="44"/>
-      <c r="B20" s="32"/>
-      <c r="C20" s="45" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="E20" s="55"/>
-      <c r="F20" s="16">
-        <v>6</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H20" s="1"/>
-    </row>
-    <row r="21" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A21" s="44"/>
-      <c r="B21" s="32"/>
-      <c r="C21" s="45" t="s">
-        <v>28</v>
-      </c>
-      <c r="D21" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="E21" s="55"/>
-      <c r="F21" s="17">
-        <v>6</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H21" s="1"/>
-    </row>
-    <row r="22" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A22" s="44"/>
-      <c r="B22" s="32"/>
-      <c r="C22" s="45" t="s">
-        <v>29</v>
-      </c>
-      <c r="D22" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="E22" s="55"/>
-      <c r="F22" s="17">
-        <v>6</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H22" s="1"/>
-    </row>
-    <row r="23" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A23" s="44"/>
-      <c r="B23" s="32"/>
-      <c r="C23" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="D23" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="E23" s="56"/>
-      <c r="F23" s="17">
-        <v>3</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H23" s="1"/>
+      <c r="G23" s="1"/>
     </row>
     <row r="24" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="42"/>
-      <c r="B24" s="43"/>
-      <c r="C24" s="43"/>
-      <c r="D24" s="43"/>
-      <c r="E24" s="43"/>
-      <c r="F24" s="43"/>
-      <c r="G24" s="43"/>
+      <c r="A24" s="1"/>
     </row>
     <row r="25" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="42"/>
-      <c r="B25" s="43"/>
-      <c r="C25" s="43"/>
-      <c r="D25" s="43"/>
-      <c r="E25" s="43"/>
-      <c r="F25" s="43"/>
-      <c r="G25" s="43"/>
+      <c r="A25" s="1"/>
     </row>
     <row r="26" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="42"/>
-      <c r="B26" s="43"/>
-      <c r="C26" s="43"/>
-      <c r="D26" s="43"/>
-      <c r="E26" s="43"/>
-      <c r="F26" s="43"/>
-      <c r="G26" s="43"/>
+      <c r="A26" s="1"/>
     </row>
     <row r="27" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="42"/>
-      <c r="B27" s="43"/>
-      <c r="C27" s="43"/>
-      <c r="D27" s="43"/>
-      <c r="E27" s="43"/>
-      <c r="F27" s="43"/>
-      <c r="G27" s="43"/>
+      <c r="A27" s="1"/>
     </row>
     <row r="28" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="42"/>
-      <c r="B28" s="43"/>
-      <c r="C28" s="43"/>
-      <c r="D28" s="43"/>
-      <c r="E28" s="43"/>
-      <c r="F28" s="43"/>
-      <c r="G28" s="43"/>
+      <c r="A28" s="1"/>
     </row>
     <row r="29" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="42"/>
-      <c r="B29" s="43"/>
-      <c r="C29" s="43"/>
-      <c r="D29" s="43"/>
-      <c r="E29" s="43"/>
-      <c r="F29" s="43"/>
-      <c r="G29" s="43"/>
+      <c r="A29" s="1"/>
     </row>
     <row r="30" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="42"/>
-      <c r="B30" s="43"/>
-      <c r="C30" s="43"/>
-      <c r="D30" s="43"/>
-      <c r="E30" s="43"/>
-      <c r="F30" s="43"/>
-      <c r="G30" s="43"/>
+      <c r="A30" s="1"/>
     </row>
     <row r="31" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="42"/>
-      <c r="B31" s="43"/>
-      <c r="C31" s="43"/>
-      <c r="D31" s="43"/>
-      <c r="E31" s="43"/>
-      <c r="F31" s="43"/>
-      <c r="G31" s="43"/>
+      <c r="A31" s="1"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B32" s="1"/>
@@ -2041,169 +1785,169 @@
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="E19:E23"/>
-    <mergeCell ref="E2:E6"/>
-    <mergeCell ref="E7:E10"/>
-    <mergeCell ref="E11:E14"/>
-    <mergeCell ref="E15:E18"/>
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="B19:B23"/>
+    <mergeCell ref="D19:D23"/>
+    <mergeCell ref="D2:D6"/>
+    <mergeCell ref="D7:D10"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="D15:D18"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="A19:A23"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="G7">
-    <cfRule type="containsText" dxfId="48" priority="123" operator="containsText" text="Alta">
-      <formula>NOT(ISERROR(SEARCH("Alta",G7)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="47" priority="128" operator="containsText" text="Muito Alta">
-      <formula>NOT(ISERROR(SEARCH("Muito Alta",G7)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="46" priority="132" operator="containsText" text="Muito Alta">
-      <formula>NOT(ISERROR(SEARCH("Muito Alta",G7)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G5">
-    <cfRule type="containsText" dxfId="45" priority="89" operator="containsText" text="Media">
-      <formula>NOT(ISERROR(SEARCH("Media",G5)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="44" priority="131" operator="containsText" text="Media">
-      <formula>NOT(ISERROR(SEARCH("Media",G5)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G2">
-    <cfRule type="containsText" dxfId="43" priority="126" operator="containsText" text="Media">
-      <formula>NOT(ISERROR(SEARCH("Media",G2)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G3">
-    <cfRule type="containsText" dxfId="42" priority="125" operator="containsText" text="Media">
-      <formula>NOT(ISERROR(SEARCH("Media",G3)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G9">
-    <cfRule type="containsText" dxfId="41" priority="117" operator="containsText" text="Alta">
-      <formula>NOT(ISERROR(SEARCH("Alta",G9)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="118" operator="containsText" text="Muito Alta">
-      <formula>NOT(ISERROR(SEARCH("Muito Alta",G9)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="39" priority="119" operator="containsText" text="Muito Alta">
-      <formula>NOT(ISERROR(SEARCH("Muito Alta",G9)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G18">
-    <cfRule type="containsText" dxfId="38" priority="102" operator="containsText" text="Alta">
-      <formula>NOT(ISERROR(SEARCH("Alta",G18)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="37" priority="103" operator="containsText" text="Muito Alta">
-      <formula>NOT(ISERROR(SEARCH("Muito Alta",G18)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="36" priority="104" operator="containsText" text="Muito Alta">
-      <formula>NOT(ISERROR(SEARCH("Muito Alta",G18)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G20 G23">
-    <cfRule type="containsText" dxfId="35" priority="93" operator="containsText" text="Alta">
-      <formula>NOT(ISERROR(SEARCH("Alta",G20)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="94" operator="containsText" text="Muito Alta">
-      <formula>NOT(ISERROR(SEARCH("Muito Alta",G20)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="95" operator="containsText" text="Muito Alta">
-      <formula>NOT(ISERROR(SEARCH("Muito Alta",G20)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G15">
-    <cfRule type="containsText" dxfId="31" priority="88" operator="containsText" text="Media">
-      <formula>NOT(ISERROR(SEARCH("Media",G15)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G16">
-    <cfRule type="containsText" dxfId="30" priority="87" operator="containsText" text="Media">
-      <formula>NOT(ISERROR(SEARCH("Media",G16)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G17">
-    <cfRule type="containsText" dxfId="29" priority="86" operator="containsText" text="Media">
-      <formula>NOT(ISERROR(SEARCH("Media",G17)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G19">
-    <cfRule type="containsText" dxfId="28" priority="85" operator="containsText" text="Media">
-      <formula>NOT(ISERROR(SEARCH("Media",G19)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G4">
-    <cfRule type="containsText" dxfId="27" priority="28" operator="containsText" text="Alta">
-      <formula>NOT(ISERROR(SEARCH("Alta",G4)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="29" operator="containsText" text="Muito Alta">
-      <formula>NOT(ISERROR(SEARCH("Muito Alta",G4)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="30" operator="containsText" text="Muito Alta">
-      <formula>NOT(ISERROR(SEARCH("Muito Alta",G4)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G12">
-    <cfRule type="containsText" dxfId="24" priority="27" operator="containsText" text="Media">
-      <formula>NOT(ISERROR(SEARCH("Media",G12)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G6">
-    <cfRule type="containsText" dxfId="23" priority="24" operator="containsText" text="Alta">
-      <formula>NOT(ISERROR(SEARCH("Alta",G6)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="25" operator="containsText" text="Muito Alta">
-      <formula>NOT(ISERROR(SEARCH("Muito Alta",G6)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="26" operator="containsText" text="Muito Alta">
-      <formula>NOT(ISERROR(SEARCH("Muito Alta",G6)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G13">
-    <cfRule type="containsText" dxfId="20" priority="23" operator="containsText" text="Media">
-      <formula>NOT(ISERROR(SEARCH("Media",G13)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G8">
-    <cfRule type="containsText" dxfId="19" priority="21" operator="containsText" text="Media">
-      <formula>NOT(ISERROR(SEARCH("Media",G8)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="22" operator="containsText" text="Media">
-      <formula>NOT(ISERROR(SEARCH("Media",G8)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G14">
-    <cfRule type="containsText" dxfId="17" priority="16" operator="containsText" text="Alta">
-      <formula>NOT(ISERROR(SEARCH("Alta",G14)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="17" operator="containsText" text="Muito Alta">
-      <formula>NOT(ISERROR(SEARCH("Muito Alta",G14)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="18" operator="containsText" text="Muito Alta">
-      <formula>NOT(ISERROR(SEARCH("Muito Alta",G14)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G11">
-    <cfRule type="containsText" dxfId="14" priority="15" operator="containsText" text="Baixa">
-      <formula>NOT(ISERROR(SEARCH("Baixa",G11)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G10">
-    <cfRule type="containsText" dxfId="13" priority="14" operator="containsText" text="Baixa">
-      <formula>NOT(ISERROR(SEARCH("Baixa",G10)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G22">
-    <cfRule type="containsText" dxfId="12" priority="13" operator="containsText" text="Baixa">
-      <formula>NOT(ISERROR(SEARCH("Baixa",G22)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G21">
-    <cfRule type="containsText" dxfId="11" priority="12" operator="containsText" text="Media">
-      <formula>NOT(ISERROR(SEARCH("Media",G21)))</formula>
+  <conditionalFormatting sqref="F7">
+    <cfRule type="containsText" dxfId="36" priority="123" operator="containsText" text="Alta">
+      <formula>NOT(ISERROR(SEARCH("Alta",F7)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="35" priority="128" operator="containsText" text="Muito Alta">
+      <formula>NOT(ISERROR(SEARCH("Muito Alta",F7)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="34" priority="132" operator="containsText" text="Muito Alta">
+      <formula>NOT(ISERROR(SEARCH("Muito Alta",F7)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5">
+    <cfRule type="containsText" dxfId="33" priority="89" operator="containsText" text="Media">
+      <formula>NOT(ISERROR(SEARCH("Media",F5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="32" priority="131" operator="containsText" text="Media">
+      <formula>NOT(ISERROR(SEARCH("Media",F5)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2">
+    <cfRule type="containsText" dxfId="31" priority="126" operator="containsText" text="Media">
+      <formula>NOT(ISERROR(SEARCH("Media",F2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3">
+    <cfRule type="containsText" dxfId="30" priority="125" operator="containsText" text="Media">
+      <formula>NOT(ISERROR(SEARCH("Media",F3)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F9">
+    <cfRule type="containsText" dxfId="29" priority="117" operator="containsText" text="Alta">
+      <formula>NOT(ISERROR(SEARCH("Alta",F9)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="28" priority="118" operator="containsText" text="Muito Alta">
+      <formula>NOT(ISERROR(SEARCH("Muito Alta",F9)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="27" priority="119" operator="containsText" text="Muito Alta">
+      <formula>NOT(ISERROR(SEARCH("Muito Alta",F9)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F18">
+    <cfRule type="containsText" dxfId="26" priority="102" operator="containsText" text="Alta">
+      <formula>NOT(ISERROR(SEARCH("Alta",F18)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="25" priority="103" operator="containsText" text="Muito Alta">
+      <formula>NOT(ISERROR(SEARCH("Muito Alta",F18)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="24" priority="104" operator="containsText" text="Muito Alta">
+      <formula>NOT(ISERROR(SEARCH("Muito Alta",F18)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F20 F23">
+    <cfRule type="containsText" dxfId="23" priority="93" operator="containsText" text="Alta">
+      <formula>NOT(ISERROR(SEARCH("Alta",F20)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="22" priority="94" operator="containsText" text="Muito Alta">
+      <formula>NOT(ISERROR(SEARCH("Muito Alta",F20)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="21" priority="95" operator="containsText" text="Muito Alta">
+      <formula>NOT(ISERROR(SEARCH("Muito Alta",F20)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F15">
+    <cfRule type="containsText" dxfId="20" priority="88" operator="containsText" text="Media">
+      <formula>NOT(ISERROR(SEARCH("Media",F15)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F16">
+    <cfRule type="containsText" dxfId="19" priority="87" operator="containsText" text="Media">
+      <formula>NOT(ISERROR(SEARCH("Media",F16)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F17">
+    <cfRule type="containsText" dxfId="18" priority="86" operator="containsText" text="Media">
+      <formula>NOT(ISERROR(SEARCH("Media",F17)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F19">
+    <cfRule type="containsText" dxfId="17" priority="85" operator="containsText" text="Media">
+      <formula>NOT(ISERROR(SEARCH("Media",F19)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F4">
+    <cfRule type="containsText" dxfId="16" priority="28" operator="containsText" text="Alta">
+      <formula>NOT(ISERROR(SEARCH("Alta",F4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="15" priority="29" operator="containsText" text="Muito Alta">
+      <formula>NOT(ISERROR(SEARCH("Muito Alta",F4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="14" priority="30" operator="containsText" text="Muito Alta">
+      <formula>NOT(ISERROR(SEARCH("Muito Alta",F4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F12">
+    <cfRule type="containsText" dxfId="13" priority="27" operator="containsText" text="Media">
+      <formula>NOT(ISERROR(SEARCH("Media",F12)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F6">
+    <cfRule type="containsText" dxfId="12" priority="24" operator="containsText" text="Alta">
+      <formula>NOT(ISERROR(SEARCH("Alta",F6)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="11" priority="25" operator="containsText" text="Muito Alta">
+      <formula>NOT(ISERROR(SEARCH("Muito Alta",F6)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="10" priority="26" operator="containsText" text="Muito Alta">
+      <formula>NOT(ISERROR(SEARCH("Muito Alta",F6)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F13">
+    <cfRule type="containsText" dxfId="9" priority="23" operator="containsText" text="Media">
+      <formula>NOT(ISERROR(SEARCH("Media",F13)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F8">
+    <cfRule type="containsText" dxfId="8" priority="21" operator="containsText" text="Media">
+      <formula>NOT(ISERROR(SEARCH("Media",F8)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="7" priority="22" operator="containsText" text="Media">
+      <formula>NOT(ISERROR(SEARCH("Media",F8)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F14">
+    <cfRule type="containsText" dxfId="6" priority="16" operator="containsText" text="Alta">
+      <formula>NOT(ISERROR(SEARCH("Alta",F14)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="5" priority="17" operator="containsText" text="Muito Alta">
+      <formula>NOT(ISERROR(SEARCH("Muito Alta",F14)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="18" operator="containsText" text="Muito Alta">
+      <formula>NOT(ISERROR(SEARCH("Muito Alta",F14)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F11">
+    <cfRule type="containsText" dxfId="3" priority="15" operator="containsText" text="Baixa">
+      <formula>NOT(ISERROR(SEARCH("Baixa",F11)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F10">
+    <cfRule type="containsText" dxfId="2" priority="14" operator="containsText" text="Baixa">
+      <formula>NOT(ISERROR(SEARCH("Baixa",F10)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F22">
+    <cfRule type="containsText" dxfId="1" priority="13" operator="containsText" text="Baixa">
+      <formula>NOT(ISERROR(SEARCH("Baixa",F22)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F21">
+    <cfRule type="containsText" dxfId="0" priority="12" operator="containsText" text="Media">
+      <formula>NOT(ISERROR(SEARCH("Media",F21)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Alimenta-AI-SD&TE/ProductBacklog.xlsx
+++ b/Alimenta-AI-SD&TE/ProductBacklog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mniac\Desktop\Alimenta-AI\Alimenta-AI-SD&amp;TE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F345955-1713-44C0-8980-3A6C21F8325C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B00DAF09-4246-4DBF-9309-664CD1D2FAC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -565,6 +565,51 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -596,51 +641,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1324,13 +1324,13 @@
   <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="65" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="45.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="38.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" customWidth="1"/>
     <col min="3" max="3" width="58.85546875" customWidth="1"/>
     <col min="4" max="4" width="63.42578125" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
@@ -1359,7 +1359,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="38" t="s">
         <v>31</v>
       </c>
       <c r="B2" s="7" t="s">
@@ -1368,7 +1368,7 @@
       <c r="C2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="37" t="s">
+      <c r="D2" s="26" t="s">
         <v>37</v>
       </c>
       <c r="E2" s="7">
@@ -1379,14 +1379,14 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="24"/>
+      <c r="A3" s="39"/>
       <c r="B3" s="7" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="38"/>
+      <c r="D3" s="27"/>
       <c r="E3" s="8">
         <v>2</v>
       </c>
@@ -1396,14 +1396,14 @@
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="24"/>
+      <c r="A4" s="39"/>
       <c r="B4" s="7" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="38"/>
+      <c r="D4" s="27"/>
       <c r="E4" s="7">
         <v>5</v>
       </c>
@@ -1413,14 +1413,14 @@
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="24"/>
+      <c r="A5" s="39"/>
       <c r="B5" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="38"/>
+      <c r="D5" s="27"/>
       <c r="E5" s="7">
         <v>4</v>
       </c>
@@ -1430,14 +1430,14 @@
       <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="25"/>
+      <c r="A6" s="40"/>
       <c r="B6" s="7" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="39"/>
+      <c r="D6" s="28"/>
       <c r="E6" s="7">
         <v>4</v>
       </c>
@@ -1447,7 +1447,7 @@
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="44" t="s">
         <v>38</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -1456,7 +1456,7 @@
       <c r="C7" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D7" s="40" t="s">
+      <c r="D7" s="29" t="s">
         <v>43</v>
       </c>
       <c r="E7" s="4">
@@ -1468,14 +1468,14 @@
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="30"/>
+      <c r="A8" s="45"/>
       <c r="B8" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D8" s="41"/>
+      <c r="D8" s="30"/>
       <c r="E8" s="4">
         <v>3</v>
       </c>
@@ -1484,14 +1484,14 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="30"/>
+      <c r="A9" s="45"/>
       <c r="B9" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="D9" s="41"/>
+      <c r="D9" s="30"/>
       <c r="E9" s="4">
         <v>8</v>
       </c>
@@ -1501,14 +1501,14 @@
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="30"/>
+      <c r="A10" s="45"/>
       <c r="B10" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="42"/>
+      <c r="D10" s="31"/>
       <c r="E10" s="4">
         <v>2</v>
       </c>
@@ -1518,7 +1518,7 @@
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="26" t="s">
+      <c r="A11" s="41" t="s">
         <v>44</v>
       </c>
       <c r="B11" s="18" t="s">
@@ -1527,7 +1527,7 @@
       <c r="C11" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="43" t="s">
+      <c r="D11" s="32" t="s">
         <v>49</v>
       </c>
       <c r="E11" s="18">
@@ -1539,14 +1539,14 @@
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="27"/>
+      <c r="A12" s="42"/>
       <c r="B12" s="12" t="s">
         <v>19</v>
       </c>
       <c r="C12" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="44"/>
+      <c r="D12" s="33"/>
       <c r="E12" s="12">
         <v>4</v>
       </c>
@@ -1556,14 +1556,14 @@
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="27"/>
+      <c r="A13" s="42"/>
       <c r="B13" s="12" t="s">
         <v>20</v>
       </c>
       <c r="C13" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="44"/>
+      <c r="D13" s="33"/>
       <c r="E13" s="12">
         <v>3</v>
       </c>
@@ -1573,14 +1573,14 @@
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="28"/>
+      <c r="A14" s="43"/>
       <c r="B14" s="12" t="s">
         <v>21</v>
       </c>
       <c r="C14" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="45"/>
+      <c r="D14" s="34"/>
       <c r="E14" s="12">
         <v>3</v>
       </c>
@@ -1590,7 +1590,7 @@
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="31" t="s">
+      <c r="A15" s="46" t="s">
         <v>50</v>
       </c>
       <c r="B15" s="15" t="s">
@@ -1599,7 +1599,7 @@
       <c r="C15" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="D15" s="46" t="s">
+      <c r="D15" s="35" t="s">
         <v>54</v>
       </c>
       <c r="E15" s="4">
@@ -1611,14 +1611,14 @@
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="32"/>
+      <c r="A16" s="47"/>
       <c r="B16" s="15" t="s">
         <v>23</v>
       </c>
       <c r="C16" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="D16" s="47"/>
+      <c r="D16" s="36"/>
       <c r="E16" s="4">
         <v>2</v>
       </c>
@@ -1628,14 +1628,14 @@
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="32"/>
+      <c r="A17" s="47"/>
       <c r="B17" s="15" t="s">
         <v>24</v>
       </c>
       <c r="C17" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="D17" s="47"/>
+      <c r="D17" s="36"/>
       <c r="E17" s="4">
         <v>2</v>
       </c>
@@ -1645,14 +1645,14 @@
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="32"/>
+      <c r="A18" s="47"/>
       <c r="B18" s="15" t="s">
         <v>25</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="D18" s="48"/>
+      <c r="D18" s="37"/>
       <c r="E18" s="4">
         <v>4</v>
       </c>
@@ -1662,7 +1662,7 @@
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="33" t="s">
+      <c r="A19" s="48" t="s">
         <v>61</v>
       </c>
       <c r="B19" s="21" t="s">
@@ -1671,7 +1671,7 @@
       <c r="C19" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="D19" s="34" t="s">
+      <c r="D19" s="23" t="s">
         <v>59</v>
       </c>
       <c r="E19" s="11">
@@ -1683,14 +1683,14 @@
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="33"/>
+      <c r="A20" s="48"/>
       <c r="B20" s="21" t="s">
         <v>27</v>
       </c>
       <c r="C20" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="D20" s="35"/>
+      <c r="D20" s="24"/>
       <c r="E20" s="11">
         <v>6</v>
       </c>
@@ -1700,14 +1700,14 @@
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="33"/>
+      <c r="A21" s="48"/>
       <c r="B21" s="21" t="s">
         <v>28</v>
       </c>
       <c r="C21" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="D21" s="35"/>
+      <c r="D21" s="24"/>
       <c r="E21" s="12">
         <v>6</v>
       </c>
@@ -1717,14 +1717,14 @@
       <c r="G21" s="1"/>
     </row>
     <row r="22" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="33"/>
+      <c r="A22" s="48"/>
       <c r="B22" s="21" t="s">
         <v>29</v>
       </c>
       <c r="C22" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="D22" s="35"/>
+      <c r="D22" s="24"/>
       <c r="E22" s="12">
         <v>6</v>
       </c>
@@ -1734,14 +1734,14 @@
       <c r="G22" s="1"/>
     </row>
     <row r="23" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="33"/>
+      <c r="A23" s="48"/>
       <c r="B23" s="12" t="s">
         <v>30</v>
       </c>
       <c r="C23" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="D23" s="36"/>
+      <c r="D23" s="25"/>
       <c r="E23" s="12">
         <v>3</v>
       </c>
@@ -1785,16 +1785,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="A19:A23"/>
     <mergeCell ref="D19:D23"/>
     <mergeCell ref="D2:D6"/>
     <mergeCell ref="D7:D10"/>
     <mergeCell ref="D11:D14"/>
     <mergeCell ref="D15:D18"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="A19:A23"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="F7">
